--- a/data_processing/2024/OES/PISCES-A_folder_mapping.xlsx
+++ b/data_processing/2024/OES/PISCES-A_folder_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2024/PISCES-A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2024/OES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB26FD4C-F670-3C4B-B22D-E96634B9E89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5730998-716F-7B4A-8656-6CBD0DA1F2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{7D0BEE12-67C4-9445-91B9-E164F4C2424B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Echelle folder</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>PC boron pebble rod</t>
+  </si>
+  <si>
+    <t>echelle_20241031</t>
+  </si>
+  <si>
+    <t>HP boron rod (redeposit test)</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A123F25F-5257-094F-9AF3-5688375A501B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -485,6 +491,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
